--- a/Code/Results/Cases/Case_6_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.509423558113269</v>
+        <v>1.084864889296625</v>
       </c>
       <c r="C2">
-        <v>0.6087026929620833</v>
+        <v>0.1745373173267097</v>
       </c>
       <c r="D2">
-        <v>0.02571100292870554</v>
+        <v>0.05276068729272509</v>
       </c>
       <c r="E2">
-        <v>1.4336090946273</v>
+        <v>1.38020280366581</v>
       </c>
       <c r="F2">
-        <v>2.07482013708406</v>
+        <v>0.5531333974988115</v>
       </c>
       <c r="G2">
-        <v>0.0007725076971390022</v>
+        <v>0.0007982021855030199</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6985620708277125</v>
+        <v>1.162693615464434</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.655636978570357</v>
+        <v>1.623237674381755</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.160177952174308</v>
+        <v>0.942436174439365</v>
       </c>
       <c r="C3">
-        <v>0.52640357765506</v>
+        <v>0.1571699383914762</v>
       </c>
       <c r="D3">
-        <v>0.02610927372506922</v>
+        <v>0.04838531158045356</v>
       </c>
       <c r="E3">
-        <v>1.222405006461983</v>
+        <v>1.18557885052968</v>
       </c>
       <c r="F3">
-        <v>1.837977096977681</v>
+        <v>0.5201009649832571</v>
       </c>
       <c r="G3">
-        <v>0.0007814666487885716</v>
+        <v>0.0008026211070787477</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6014485854319034</v>
+        <v>1.014027905177613</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.472330875095409</v>
+        <v>1.564775394264984</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.949212374642144</v>
+        <v>0.855283307674199</v>
       </c>
       <c r="C4">
-        <v>0.4766291648786591</v>
+        <v>0.1465123214809267</v>
       </c>
       <c r="D4">
-        <v>0.02643921406175664</v>
+        <v>0.04568632400547301</v>
       </c>
       <c r="E4">
-        <v>1.096529312703595</v>
+        <v>1.068214181625009</v>
       </c>
       <c r="F4">
-        <v>1.69783638412764</v>
+        <v>0.5011469455835638</v>
       </c>
       <c r="G4">
-        <v>0.0007870769204087751</v>
+        <v>0.0008054122542903069</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5427635209366883</v>
+        <v>0.9229641883673878</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.364146768254585</v>
+        <v>1.533247791581687</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.863971932430076</v>
+        <v>0.8198240279260176</v>
       </c>
       <c r="C5">
-        <v>0.4564997218367353</v>
+        <v>0.142168645475877</v>
       </c>
       <c r="D5">
-        <v>0.02659264749479107</v>
+        <v>0.04458318248619264</v>
       </c>
       <c r="E5">
-        <v>1.046031639099127</v>
+        <v>1.020843059746767</v>
       </c>
       <c r="F5">
-        <v>1.641893763446603</v>
+        <v>0.4937348881771726</v>
       </c>
       <c r="G5">
-        <v>0.0007893932660105504</v>
+        <v>0.0008065698636133935</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5190454227431687</v>
+        <v>0.8858905128361414</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.321025529425114</v>
+        <v>1.521430034476936</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.849857986086903</v>
+        <v>0.8139389080361639</v>
       </c>
       <c r="C6">
-        <v>0.453165556662924</v>
+        <v>0.1414472856229594</v>
       </c>
       <c r="D6">
-        <v>0.02661920432770515</v>
+        <v>0.04439980464952242</v>
       </c>
       <c r="E6">
-        <v>1.0376904319658</v>
+        <v>1.01300241490145</v>
       </c>
       <c r="F6">
-        <v>1.632670514481617</v>
+        <v>0.4925223373664593</v>
       </c>
       <c r="G6">
-        <v>0.0007897797830668624</v>
+        <v>0.0008067633204281672</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5151178162539622</v>
+        <v>0.8797360679157009</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.31391990258102</v>
+        <v>1.519527993602622</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.948060016228254</v>
+        <v>0.8548048878904524</v>
       </c>
       <c r="C7">
-        <v>0.476357113750737</v>
+        <v>0.1464537463047009</v>
       </c>
       <c r="D7">
-        <v>0.02644120953782547</v>
+        <v>0.04567146011680023</v>
       </c>
       <c r="E7">
-        <v>1.095845249733372</v>
+        <v>1.067573574318573</v>
       </c>
       <c r="F7">
-        <v>1.69707740440488</v>
+        <v>0.5010457494712099</v>
       </c>
       <c r="G7">
-        <v>0.000787108034242018</v>
+        <v>0.0008054277837290627</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5424429050829147</v>
+        <v>0.9224640803440707</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.36356148058789</v>
+        <v>1.533084330118754</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.388191539850425</v>
+        <v>1.035681563899118</v>
       </c>
       <c r="C8">
-        <v>0.5801454241028239</v>
+        <v>0.1685464563534111</v>
       </c>
       <c r="D8">
-        <v>0.02582899631278224</v>
+        <v>0.05125455772100906</v>
       </c>
       <c r="E8">
-        <v>1.359894199149025</v>
+        <v>1.312602385242286</v>
       </c>
       <c r="F8">
-        <v>1.991957231957088</v>
+        <v>0.5414544463694</v>
       </c>
       <c r="G8">
-        <v>0.000775575680126428</v>
+        <v>0.0007997100343979896</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.664855748922605</v>
+        <v>1.111376480182145</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.591441955599677</v>
+        <v>1.602130579588561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.286266121371057</v>
+        <v>1.393693530532232</v>
       </c>
       <c r="C9">
-        <v>0.7915867502255196</v>
+        <v>0.2120252379078806</v>
       </c>
       <c r="D9">
-        <v>0.0254383860239038</v>
+        <v>0.06211176566511512</v>
       </c>
       <c r="E9">
-        <v>1.916283722895358</v>
+        <v>1.814093448847785</v>
       </c>
       <c r="F9">
-        <v>2.620477144310485</v>
+        <v>0.632307366357459</v>
       </c>
       <c r="G9">
-        <v>0.0007536952750276672</v>
+        <v>0.000789086277440898</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9144935342037286</v>
+        <v>1.484516688440152</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079829826347847</v>
+        <v>1.775525659297671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.97953005343345</v>
+        <v>1.660194218570012</v>
       </c>
       <c r="C10">
-        <v>0.9548931343342701</v>
+        <v>0.2442315180339563</v>
       </c>
       <c r="D10">
-        <v>0.02586870619446557</v>
+        <v>0.07004612263003196</v>
       </c>
       <c r="E10">
-        <v>2.362721925752595</v>
+        <v>2.201657763054101</v>
       </c>
       <c r="F10">
-        <v>3.12647502140419</v>
+        <v>0.7077606679056458</v>
       </c>
       <c r="G10">
-        <v>0.0007378491547466651</v>
+        <v>0.0007815951321659562</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.107191818777025</v>
+        <v>1.761776901085483</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.475141186724528</v>
+        <v>1.931130613589431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.305508357606129</v>
+        <v>1.782544828258381</v>
       </c>
       <c r="C11">
-        <v>1.031787965570828</v>
+        <v>0.2589824676506964</v>
       </c>
       <c r="D11">
-        <v>0.02628493354967532</v>
+        <v>0.073649862624805</v>
       </c>
       <c r="E11">
-        <v>2.578055819009251</v>
+        <v>2.383748713273235</v>
       </c>
       <c r="F11">
-        <v>3.369995050231211</v>
+        <v>0.7443765545297083</v>
       </c>
       <c r="G11">
-        <v>0.0007306300316351096</v>
+        <v>0.000778244382442472</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.197822374055079</v>
+        <v>1.888953822318001</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.665976394458582</v>
+        <v>2.009293230442836</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.43081425193634</v>
+        <v>1.829069426007038</v>
       </c>
       <c r="C12">
-        <v>1.061371319083861</v>
+        <v>0.2645866219699116</v>
       </c>
       <c r="D12">
-        <v>0.02648120568359857</v>
+        <v>0.07501399865092395</v>
       </c>
       <c r="E12">
-        <v>2.661791625447819</v>
+        <v>2.453689979972765</v>
       </c>
       <c r="F12">
-        <v>3.464509551415432</v>
+        <v>0.7586086296426799</v>
       </c>
       <c r="G12">
-        <v>0.0007278886281102404</v>
+        <v>0.0007769827227179551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.232666557047239</v>
+        <v>1.937297105570536</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.740138899692866</v>
+        <v>2.040068216248613</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.403738334920831</v>
+        <v>1.819040384875819</v>
       </c>
       <c r="C13">
-        <v>1.054977702584466</v>
+        <v>0.263378786849259</v>
       </c>
       <c r="D13">
-        <v>0.02643708779078224</v>
+        <v>0.07472022581311677</v>
       </c>
       <c r="E13">
-        <v>2.643652113178092</v>
+        <v>2.438580269414558</v>
       </c>
       <c r="F13">
-        <v>3.444045079468509</v>
+        <v>0.7555265737887424</v>
       </c>
       <c r="G13">
-        <v>0.0007284794908820209</v>
+        <v>0.0007772541406935185</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.225137168163798</v>
+        <v>1.926876759285392</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.724076626563189</v>
+        <v>2.033385978627336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.315777796544694</v>
+        <v>1.786368368708196</v>
       </c>
       <c r="C14">
-        <v>1.034211905926128</v>
+        <v>0.2594431343615611</v>
       </c>
       <c r="D14">
-        <v>0.02630026074780289</v>
+        <v>0.07376209960683155</v>
       </c>
       <c r="E14">
-        <v>2.58489802475961</v>
+        <v>2.389482072214903</v>
       </c>
       <c r="F14">
-        <v>3.377722305548929</v>
+        <v>0.7455398677409164</v>
       </c>
       <c r="G14">
-        <v>0.0007304046881424497</v>
+        <v>0.0007781404468119079</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.200677893681174</v>
+        <v>1.892927160459493</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.672037744071176</v>
+        <v>2.011800823624128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.262153472881607</v>
+        <v>1.766381973859666</v>
       </c>
       <c r="C15">
-        <v>1.021555791258777</v>
+        <v>0.2570349385175348</v>
       </c>
       <c r="D15">
-        <v>0.0262217176295465</v>
+        <v>0.07317516078915531</v>
       </c>
       <c r="E15">
-        <v>2.549209607225634</v>
+        <v>2.359541551392425</v>
       </c>
       <c r="F15">
-        <v>3.33740958133626</v>
+        <v>0.7394715991564027</v>
       </c>
       <c r="G15">
-        <v>0.0007315827243019011</v>
+        <v>0.0007786842406545364</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.185767369145353</v>
+        <v>1.872157075172396</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.640419881300787</v>
+        <v>1.998736141376526</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.958467686467031</v>
+        <v>1.652223505401111</v>
       </c>
       <c r="C16">
-        <v>0.9499276303743045</v>
+        <v>0.2432698464164673</v>
       </c>
       <c r="D16">
-        <v>0.02584650093014673</v>
+        <v>0.06981052021014023</v>
       </c>
       <c r="E16">
-        <v>2.348930623131338</v>
+        <v>2.189886948736756</v>
       </c>
       <c r="F16">
-        <v>3.110859782803857</v>
+        <v>0.7054169211046428</v>
       </c>
       <c r="G16">
-        <v>0.0007383202280797069</v>
+        <v>0.0007818151754286842</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.101336577037571</v>
+        <v>1.753489474867251</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.462916708369022</v>
+        <v>1.926180575757286</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.775105967647448</v>
+        <v>1.582499339129129</v>
       </c>
       <c r="C17">
-        <v>0.9067123726576369</v>
+        <v>0.2348536889194435</v>
       </c>
       <c r="D17">
-        <v>0.02567726772623047</v>
+        <v>0.06774517309115424</v>
       </c>
       <c r="E17">
-        <v>2.229481735712454</v>
+        <v>2.087395670396617</v>
       </c>
       <c r="F17">
-        <v>2.975544738635136</v>
+        <v>0.6851375881629309</v>
       </c>
       <c r="G17">
-        <v>0.000742446722266088</v>
+        <v>0.0007837498229116042</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.05036556945592</v>
+        <v>1.680982192048958</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.357049303367404</v>
+        <v>1.883638276843357</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.67061612710728</v>
+        <v>1.542498969676302</v>
       </c>
       <c r="C18">
-        <v>0.8820950655626518</v>
+        <v>0.2300221068051513</v>
       </c>
       <c r="D18">
-        <v>0.02560018603121605</v>
+        <v>0.06655669008795684</v>
       </c>
       <c r="E18">
-        <v>2.161899890895867</v>
+        <v>2.028979601531788</v>
       </c>
       <c r="F18">
-        <v>2.898944179539882</v>
+        <v>0.6736867578417929</v>
       </c>
       <c r="G18">
-        <v>0.0007448195996376324</v>
+        <v>0.0007848680125983226</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.0213212860494</v>
+        <v>1.639374560776332</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.297171217778924</v>
+        <v>1.859855870002718</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635395765047633</v>
+        <v>1.528972311721077</v>
       </c>
       <c r="C19">
-        <v>0.8737986399671627</v>
+        <v>0.2283876795577413</v>
       </c>
       <c r="D19">
-        <v>0.02557737900239587</v>
+        <v>0.06615418744416246</v>
       </c>
       <c r="E19">
-        <v>2.139198858883773</v>
+        <v>2.009288260063826</v>
       </c>
       <c r="F19">
-        <v>2.873209155555912</v>
+        <v>0.6698452731305053</v>
       </c>
       <c r="G19">
-        <v>0.0007456230856358158</v>
+        <v>0.0007852475742220913</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.011531589055707</v>
+        <v>1.625302573563658</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.277063027900581</v>
+        <v>1.85191817511128</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.794521969218351</v>
+        <v>1.58991069868668</v>
       </c>
       <c r="C20">
-        <v>0.9112873804804451</v>
+        <v>0.2357486275274852</v>
       </c>
       <c r="D20">
-        <v>0.02569314087503827</v>
+        <v>0.0679650877509701</v>
       </c>
       <c r="E20">
-        <v>2.242078317413757</v>
+        <v>2.098249691780239</v>
       </c>
       <c r="F20">
-        <v>2.989819516146241</v>
+        <v>0.6872740257567642</v>
       </c>
       <c r="G20">
-        <v>0.0007420075500853551</v>
+        <v>0.0007835433211159277</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.055762630910976</v>
+        <v>1.688690484672946</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.368212024773214</v>
+        <v>1.888095094946408</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.341560296335217</v>
+        <v>1.795959418126785</v>
       </c>
       <c r="C21">
-        <v>1.040297895679714</v>
+        <v>0.2605986012838173</v>
       </c>
       <c r="D21">
-        <v>0.02633933772356301</v>
+        <v>0.07404353620047743</v>
       </c>
       <c r="E21">
-        <v>2.602092057370797</v>
+        <v>2.403875266135373</v>
       </c>
       <c r="F21">
-        <v>3.397137129919258</v>
+        <v>0.7484629483662957</v>
       </c>
       <c r="G21">
-        <v>0.0007298394743927572</v>
+        <v>0.0007778799303787883</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.207847077043866</v>
+        <v>1.902893701393481</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.687268522498215</v>
+        <v>2.018107996514772</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.710159597653615</v>
+        <v>1.93176698888459</v>
       </c>
       <c r="C22">
-        <v>1.127379765091206</v>
+        <v>0.2769482443378024</v>
       </c>
       <c r="D22">
-        <v>0.02699144947668586</v>
+        <v>0.07801326904603201</v>
       </c>
       <c r="E22">
-        <v>2.850444891403143</v>
+        <v>2.609461880382426</v>
       </c>
       <c r="F22">
-        <v>3.676974385123486</v>
+        <v>0.7906091471009375</v>
       </c>
       <c r="G22">
-        <v>0.0007218383888200736</v>
+        <v>0.0007742199813976085</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.31035902425667</v>
+        <v>2.043979183055569</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.907042482042883</v>
+        <v>2.109998953251448</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.512287654244119</v>
+        <v>1.85916781938252</v>
       </c>
       <c r="C23">
-        <v>1.080614635296058</v>
+        <v>0.2682107759165575</v>
       </c>
       <c r="D23">
-        <v>0.02661964318484422</v>
+        <v>0.07589470756947492</v>
       </c>
       <c r="E23">
-        <v>2.716529011306818</v>
+        <v>2.499145005767204</v>
       </c>
       <c r="F23">
-        <v>3.526227005558042</v>
+        <v>0.767904515426892</v>
       </c>
       <c r="G23">
-        <v>0.0007261155239819142</v>
+        <v>0.0007761699352312266</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.255324112143057</v>
+        <v>1.96856746643499</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.788594829042268</v>
+        <v>2.060280462283885</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.785741131488805</v>
+        <v>1.586559760729273</v>
       </c>
       <c r="C24">
-        <v>0.9092183167160499</v>
+        <v>0.23534400433293</v>
       </c>
       <c r="D24">
-        <v>0.02568590216960587</v>
+        <v>0.06786566774187008</v>
       </c>
       <c r="E24">
-        <v>2.236380036193069</v>
+        <v>2.093341019339135</v>
       </c>
       <c r="F24">
-        <v>2.983362198395668</v>
+        <v>0.6863074971012537</v>
       </c>
       <c r="G24">
-        <v>0.0007422060977846976</v>
+        <v>0.0007836366620262472</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.053321817827523</v>
+        <v>1.685205325801064</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.363162308669729</v>
+        <v>1.886078071341075</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.038427654282202</v>
+        <v>1.29634514920528</v>
       </c>
       <c r="C25">
-        <v>0.7332457101788634</v>
+        <v>0.2002301701204345</v>
       </c>
       <c r="D25">
-        <v>0.0254367686776753</v>
+        <v>0.05918310029740326</v>
       </c>
       <c r="E25">
-        <v>1.760328118287134</v>
+        <v>1.675569746440118</v>
       </c>
       <c r="F25">
-        <v>2.443785788836095</v>
+        <v>0.6063267406573303</v>
       </c>
       <c r="G25">
-        <v>0.0007595564097915812</v>
+        <v>0.0007919016509966906</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8456098992759991</v>
+        <v>1.383140560591528</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.942211103975694</v>
+        <v>1.724055482314526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.084864889296625</v>
+        <v>1.040283438485574</v>
       </c>
       <c r="C2">
-        <v>0.1745373173267097</v>
+        <v>0.2615358841898257</v>
       </c>
       <c r="D2">
-        <v>0.05276068729272509</v>
+        <v>0.0794523136283658</v>
       </c>
       <c r="E2">
-        <v>1.38020280366581</v>
+        <v>1.383343921860458</v>
       </c>
       <c r="F2">
-        <v>0.5531333974988115</v>
+        <v>0.330200834897731</v>
       </c>
       <c r="G2">
-        <v>0.0007982021855030199</v>
+        <v>0.2263820974802826</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001963058839575815</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2200517839157499</v>
       </c>
       <c r="K2">
-        <v>1.162693615464434</v>
+        <v>0.1950958552409521</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.22114853491874</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.623237674381755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.8898812108193823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.942436174439365</v>
+        <v>0.9085588681378454</v>
       </c>
       <c r="C3">
-        <v>0.1571699383914762</v>
+        <v>0.2353595187489077</v>
       </c>
       <c r="D3">
-        <v>0.04838531158045356</v>
+        <v>0.07044895802353324</v>
       </c>
       <c r="E3">
-        <v>1.18557885052968</v>
+        <v>1.190696238224248</v>
       </c>
       <c r="F3">
-        <v>0.5201009649832571</v>
+        <v>0.3145913562549651</v>
       </c>
       <c r="G3">
-        <v>0.0008026211070787477</v>
+        <v>0.2193206009933988</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001106261010771714</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.222103878662324</v>
       </c>
       <c r="K3">
-        <v>1.014027905177613</v>
+        <v>0.2013525577520809</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.072182458267861</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.564775394264984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8788810592243408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.855283307674199</v>
+        <v>0.8274288275456172</v>
       </c>
       <c r="C4">
-        <v>0.1465123214809267</v>
+        <v>0.2194670413776549</v>
       </c>
       <c r="D4">
-        <v>0.04568632400547301</v>
+        <v>0.06492726782108349</v>
       </c>
       <c r="E4">
-        <v>1.068214181625009</v>
+        <v>1.074158075312781</v>
       </c>
       <c r="F4">
-        <v>0.5011469455835638</v>
+        <v>0.3055693290387964</v>
       </c>
       <c r="G4">
-        <v>0.0008054122542903069</v>
+        <v>0.215480388701323</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0007562218268093446</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.223691492890687</v>
       </c>
       <c r="K4">
-        <v>0.9229641883673878</v>
+        <v>0.205510471156984</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9807651144969327</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.533247791581687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8738556840752807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8198240279260176</v>
+        <v>0.7939487792544355</v>
       </c>
       <c r="C5">
-        <v>0.142168645475877</v>
+        <v>0.2134926566099011</v>
       </c>
       <c r="D5">
-        <v>0.04458318248619264</v>
+        <v>0.06274521399785016</v>
       </c>
       <c r="E5">
-        <v>1.020843059746767</v>
+        <v>1.027036844068661</v>
       </c>
       <c r="F5">
-        <v>0.4937348881771726</v>
+        <v>0.3016674245367241</v>
       </c>
       <c r="G5">
-        <v>0.0008065698636133935</v>
+        <v>0.2136947741200856</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0007167975138622218</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2242392017738695</v>
       </c>
       <c r="K5">
-        <v>0.8858905128361414</v>
+        <v>0.207029481973235</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9439212503481258</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.521430034476936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8711298858296317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8139389080361639</v>
+        <v>0.7879555365945521</v>
       </c>
       <c r="C6">
-        <v>0.1414472856229594</v>
+        <v>0.2130699115763832</v>
       </c>
       <c r="D6">
-        <v>0.04439980464952242</v>
+        <v>0.06246504638091466</v>
       </c>
       <c r="E6">
-        <v>1.01300241490145</v>
+        <v>1.019226464406287</v>
       </c>
       <c r="F6">
-        <v>0.4925223373664593</v>
+        <v>0.3005890156418971</v>
       </c>
       <c r="G6">
-        <v>0.0008067633204281672</v>
+        <v>0.2129925858610306</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007956518271212687</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2241167869329814</v>
       </c>
       <c r="K6">
-        <v>0.8797360679157009</v>
+        <v>0.2069791244589414</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9383022741045011</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.519527993602622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8693700787953986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8548048878904524</v>
+        <v>0.8258000697184116</v>
       </c>
       <c r="C7">
-        <v>0.1464537463047009</v>
+        <v>0.2209388879349916</v>
       </c>
       <c r="D7">
-        <v>0.04567146011680023</v>
+        <v>0.06512284356096387</v>
       </c>
       <c r="E7">
-        <v>1.067573574318573</v>
+        <v>1.073501897153605</v>
       </c>
       <c r="F7">
-        <v>0.5010457494712099</v>
+        <v>0.3043190340412423</v>
       </c>
       <c r="G7">
-        <v>0.0008054277837290627</v>
+        <v>0.2143292979848255</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0009670235145788908</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2231041441779027</v>
       </c>
       <c r="K7">
-        <v>0.9224640803440707</v>
+        <v>0.2046933857741937</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9816361891059273</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.533084330118754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.870183723169248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.035681563899118</v>
+        <v>0.9933392696197814</v>
       </c>
       <c r="C8">
-        <v>0.1685464563534111</v>
+        <v>0.2545482353345818</v>
       </c>
       <c r="D8">
-        <v>0.05125455772100906</v>
+        <v>0.07664758497855217</v>
       </c>
       <c r="E8">
-        <v>1.312602385242286</v>
+        <v>1.316485917337204</v>
       </c>
       <c r="F8">
-        <v>0.5414544463694</v>
+        <v>0.3231143985016161</v>
       </c>
       <c r="G8">
-        <v>0.0007997100343979896</v>
+        <v>0.2223523598932502</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001880729940332948</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2199086672977018</v>
       </c>
       <c r="K8">
-        <v>1.111376480182145</v>
+        <v>0.196088457808953</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.171600269701401</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.602130579588561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8809268797980394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.393693530532232</v>
+        <v>1.322285397787454</v>
       </c>
       <c r="C9">
-        <v>0.2120252379078806</v>
+        <v>0.319310611662786</v>
       </c>
       <c r="D9">
-        <v>0.06211176566511512</v>
+        <v>0.09891511831779809</v>
       </c>
       <c r="E9">
-        <v>1.814093448847785</v>
+        <v>1.810100722814866</v>
       </c>
       <c r="F9">
-        <v>0.632307366357459</v>
+        <v>0.3669696330653949</v>
       </c>
       <c r="G9">
-        <v>0.000789086277440898</v>
+        <v>0.2443990717819133</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004893028176258696</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2174492074409073</v>
       </c>
       <c r="K9">
-        <v>1.484516688440152</v>
+        <v>0.1833510734225712</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.542523945594553</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.775525659297671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9232893839667327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.660194218570012</v>
+        <v>1.562712579673246</v>
       </c>
       <c r="C10">
-        <v>0.2442315180339563</v>
+        <v>0.369086948802078</v>
       </c>
       <c r="D10">
-        <v>0.07004612263003196</v>
+        <v>0.1154766160671414</v>
       </c>
       <c r="E10">
-        <v>2.201657763054101</v>
+        <v>2.188087227896261</v>
       </c>
       <c r="F10">
-        <v>0.7077606679056458</v>
+        <v>0.4021521240547656</v>
       </c>
       <c r="G10">
-        <v>0.0007815951321659562</v>
+        <v>0.2632206680287652</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.008352711981154393</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2172633198296623</v>
       </c>
       <c r="K10">
-        <v>1.761776901085483</v>
+        <v>0.1754322578350411</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.817073732175658</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.931130613589431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9633342407866934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.782544828258381</v>
+        <v>1.670046676976057</v>
       </c>
       <c r="C11">
-        <v>0.2589824676506964</v>
+        <v>0.3947992158039995</v>
       </c>
       <c r="D11">
-        <v>0.073649862624805</v>
+        <v>0.1234244043703114</v>
       </c>
       <c r="E11">
-        <v>2.383748713273235</v>
+        <v>2.364550494019582</v>
       </c>
       <c r="F11">
-        <v>0.7443765545297083</v>
+        <v>0.4171264167230078</v>
       </c>
       <c r="G11">
-        <v>0.000778244382442472</v>
+        <v>0.2707891982451045</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0105547926492946</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2167076820336717</v>
       </c>
       <c r="K11">
-        <v>1.888953822318001</v>
+        <v>0.1709771697527671</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.944791489221018</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.009293230442836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.9784508724689545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.829069426007038</v>
+        <v>1.711755783725437</v>
       </c>
       <c r="C12">
-        <v>0.2645866219699116</v>
+        <v>0.4031870552253451</v>
       </c>
       <c r="D12">
-        <v>0.07501399865092395</v>
+        <v>0.1262348859819724</v>
       </c>
       <c r="E12">
-        <v>2.453689979972765</v>
+        <v>2.43217480421599</v>
       </c>
       <c r="F12">
-        <v>0.7586086296426799</v>
+        <v>0.4239759864676174</v>
       </c>
       <c r="G12">
-        <v>0.0007769827227179551</v>
+        <v>0.2747538958316369</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01126244984602742</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.217072325099835</v>
       </c>
       <c r="K12">
-        <v>1.937297105570536</v>
+        <v>0.1700582128390558</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.992004874514976</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.040068216248613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9877074867456912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.819040384875819</v>
+        <v>1.702986720602297</v>
       </c>
       <c r="C13">
-        <v>0.263378786849259</v>
+        <v>0.4010914038707654</v>
       </c>
       <c r="D13">
-        <v>0.07472022581311677</v>
+        <v>0.125588148369971</v>
       </c>
       <c r="E13">
-        <v>2.438580269414558</v>
+        <v>2.417580572972682</v>
       </c>
       <c r="F13">
-        <v>0.7555265737887424</v>
+        <v>0.422702132768805</v>
       </c>
       <c r="G13">
-        <v>0.0007772541406935185</v>
+        <v>0.2740883338654143</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01107025152937968</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2170911834196758</v>
       </c>
       <c r="K13">
-        <v>1.926876759285392</v>
+        <v>0.1703924830590502</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.981582732605546</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.033385978627336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9863170910845582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.786368368708196</v>
+        <v>1.673568831262543</v>
       </c>
       <c r="C14">
-        <v>0.2594431343615611</v>
+        <v>0.3953664308263853</v>
       </c>
       <c r="D14">
-        <v>0.07376209960683155</v>
+        <v>0.1236380231824228</v>
       </c>
       <c r="E14">
-        <v>2.389482072214903</v>
+        <v>2.370100388731075</v>
       </c>
       <c r="F14">
-        <v>0.7455398677409164</v>
+        <v>0.4177753051261064</v>
       </c>
       <c r="G14">
-        <v>0.0007781404468119079</v>
+        <v>0.2711952355102341</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01059574310745592</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2167789952651518</v>
       </c>
       <c r="K14">
-        <v>1.892927160459493</v>
+        <v>0.1709594390398514</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.948567893188084</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.011800823624128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9794682497009717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.766381973859666</v>
+        <v>1.655129587063612</v>
       </c>
       <c r="C15">
-        <v>0.2570349385175348</v>
+        <v>0.3924316906542344</v>
       </c>
       <c r="D15">
-        <v>0.07317516078915531</v>
+        <v>0.1225252442390286</v>
       </c>
       <c r="E15">
-        <v>2.359541551392425</v>
+        <v>2.341109850833178</v>
       </c>
       <c r="F15">
-        <v>0.7394715991564027</v>
+        <v>0.4143673002465036</v>
       </c>
       <c r="G15">
-        <v>0.0007786842406545364</v>
+        <v>0.2690580027605947</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01038979689627695</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2163989724501505</v>
       </c>
       <c r="K15">
-        <v>1.872157075172396</v>
+        <v>0.1710411882070453</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.928848370257526</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.998736141376526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.9741036011101158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.652223505401111</v>
+        <v>1.552160749307575</v>
       </c>
       <c r="C16">
-        <v>0.2432698464164673</v>
+        <v>0.3721361204580376</v>
       </c>
       <c r="D16">
-        <v>0.06981052021014023</v>
+        <v>0.1156386138929832</v>
       </c>
       <c r="E16">
-        <v>2.189886948736756</v>
+        <v>2.176561407293946</v>
       </c>
       <c r="F16">
-        <v>0.7054169211046428</v>
+        <v>0.3977384118293301</v>
       </c>
       <c r="G16">
-        <v>0.0007818151754286842</v>
+        <v>0.2595125200961945</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.00882341175058432</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2156318638574675</v>
       </c>
       <c r="K16">
-        <v>1.753489474867251</v>
+        <v>0.1734029010226585</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.812865972203952</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.926180575757286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.952041180897794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.582499339129129</v>
+        <v>1.48900761646874</v>
       </c>
       <c r="C17">
-        <v>0.2348536889194435</v>
+        <v>0.3597696049706087</v>
       </c>
       <c r="D17">
-        <v>0.06774517309115424</v>
+        <v>0.1114182961243557</v>
       </c>
       <c r="E17">
-        <v>2.087395670396617</v>
+        <v>2.076866996159282</v>
       </c>
       <c r="F17">
-        <v>0.6851375881629309</v>
+        <v>0.3877953476256479</v>
       </c>
       <c r="G17">
-        <v>0.0007837498229116042</v>
+        <v>0.2538902385954174</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.007948868183810021</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2152920022794618</v>
       </c>
       <c r="K17">
-        <v>1.680982192048958</v>
+        <v>0.1749806356095114</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.741830103907404</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.883638276843357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9392736042900651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.542498969676302</v>
+        <v>1.453752866933428</v>
       </c>
       <c r="C18">
-        <v>0.2300221068051513</v>
+        <v>0.3512533985505257</v>
       </c>
       <c r="D18">
-        <v>0.06655669008795684</v>
+        <v>0.1087864654582944</v>
       </c>
       <c r="E18">
-        <v>2.028979601531788</v>
+        <v>2.019975693010807</v>
       </c>
       <c r="F18">
-        <v>0.6736867578417929</v>
+        <v>0.3832114396018937</v>
       </c>
       <c r="G18">
-        <v>0.0007848680125983226</v>
+        <v>0.2517145662756306</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007253145026912655</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2156508202956147</v>
       </c>
       <c r="K18">
-        <v>1.639374560776332</v>
+        <v>0.1766371274391005</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.699762242404972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.859855870002718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9353332756233357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.528972311721077</v>
+        <v>1.440993403205937</v>
       </c>
       <c r="C19">
-        <v>0.2283876795577413</v>
+        <v>0.34947874832298</v>
       </c>
       <c r="D19">
-        <v>0.06615418744416246</v>
+        <v>0.1080543649407844</v>
       </c>
       <c r="E19">
-        <v>2.009288260063826</v>
+        <v>2.000761858232764</v>
       </c>
       <c r="F19">
-        <v>0.6698452731305053</v>
+        <v>0.3808688818297128</v>
       </c>
       <c r="G19">
-        <v>0.0007852475742220913</v>
+        <v>0.250238382479985</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.007191194883133356</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2153882990189402</v>
       </c>
       <c r="K19">
-        <v>1.625302573563658</v>
+        <v>0.1766629492178389</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.686487013192959</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.85191817511128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.9316270472047989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.58991069868668</v>
+        <v>1.495813863626495</v>
       </c>
       <c r="C20">
-        <v>0.2357486275274852</v>
+        <v>0.3609703987214914</v>
       </c>
       <c r="D20">
-        <v>0.0679650877509701</v>
+        <v>0.1118512225563393</v>
       </c>
       <c r="E20">
-        <v>2.098249691780239</v>
+        <v>2.087437180829752</v>
       </c>
       <c r="F20">
-        <v>0.6872740257567642</v>
+        <v>0.3889262544092915</v>
       </c>
       <c r="G20">
-        <v>0.0007835433211159277</v>
+        <v>0.2545567399578275</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008021067709667484</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2153631534173641</v>
       </c>
       <c r="K20">
-        <v>1.688690484672946</v>
+        <v>0.17486298161025</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.749289956765267</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.888095094946408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9408502023329817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.795959418126785</v>
+        <v>1.681009585614277</v>
       </c>
       <c r="C21">
-        <v>0.2605986012838173</v>
+        <v>0.3986533190294494</v>
       </c>
       <c r="D21">
-        <v>0.07404353620047743</v>
+        <v>0.1244419757211546</v>
       </c>
       <c r="E21">
-        <v>2.403875266135373</v>
+        <v>2.383990122202391</v>
       </c>
       <c r="F21">
-        <v>0.7484629483662957</v>
+        <v>0.4180526705621688</v>
       </c>
       <c r="G21">
-        <v>0.0007778799303787883</v>
+        <v>0.270952351593472</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01095716464825003</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2163041094975213</v>
       </c>
       <c r="K21">
-        <v>1.902893701393481</v>
+        <v>0.1700095627065252</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.959663791852449</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.018107996514772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.9779771408320954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.93176698888459</v>
+        <v>1.803655554289293</v>
       </c>
       <c r="C22">
-        <v>0.2769482443378024</v>
+        <v>0.4215438025804303</v>
       </c>
       <c r="D22">
-        <v>0.07801326904603201</v>
+        <v>0.132393904849593</v>
       </c>
       <c r="E22">
-        <v>2.609461880382426</v>
+        <v>2.582419294508597</v>
       </c>
       <c r="F22">
-        <v>0.7906091471009375</v>
+        <v>0.4394677377270355</v>
       </c>
       <c r="G22">
-        <v>0.0007742199813976085</v>
+        <v>0.2838660209060677</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01288726371061877</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2180852055637175</v>
       </c>
       <c r="K22">
-        <v>2.043979183055569</v>
+        <v>0.1682717537507834</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.095818420346774</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.109998953251448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.009337589648965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.85916781938252</v>
+        <v>1.739633986689739</v>
       </c>
       <c r="C23">
-        <v>0.2682107759165575</v>
+        <v>0.4073607669957084</v>
       </c>
       <c r="D23">
-        <v>0.07589470756947492</v>
+        <v>0.1278691899586306</v>
       </c>
       <c r="E23">
-        <v>2.499145005767204</v>
+        <v>2.476096709072777</v>
       </c>
       <c r="F23">
-        <v>0.767904515426892</v>
+        <v>0.4293570139729752</v>
       </c>
       <c r="G23">
-        <v>0.0007761699352312266</v>
+        <v>0.2782082797598093</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01157667709809385</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2177721869047389</v>
       </c>
       <c r="K23">
-        <v>1.96856746643499</v>
+        <v>0.1700999617747527</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.021414554365577</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.060280462283885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9965527008377393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.586559760729273</v>
+        <v>1.494998104145054</v>
       </c>
       <c r="C24">
-        <v>0.23534400433293</v>
+        <v>0.3574008147054997</v>
       </c>
       <c r="D24">
-        <v>0.06786566774187008</v>
+        <v>0.111219721319884</v>
       </c>
       <c r="E24">
-        <v>2.093341019339135</v>
+        <v>2.082715607698006</v>
       </c>
       <c r="F24">
-        <v>0.6863074971012537</v>
+        <v>0.390626979536556</v>
       </c>
       <c r="G24">
-        <v>0.0007836366620262472</v>
+        <v>0.2563238933832395</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007557278139738166</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2164062487325467</v>
       </c>
       <c r="K24">
-        <v>1.685205325801064</v>
+        <v>0.1764075587818112</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.743275589310258</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.886078071341075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9467742727168655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.29634514920528</v>
+        <v>1.231264729408821</v>
       </c>
       <c r="C25">
-        <v>0.2002301701204345</v>
+        <v>0.3044672587231361</v>
       </c>
       <c r="D25">
-        <v>0.05918310029740326</v>
+        <v>0.09329718476806903</v>
       </c>
       <c r="E25">
-        <v>1.675569746440118</v>
+        <v>1.674207060753872</v>
       </c>
       <c r="F25">
-        <v>0.6063267406573303</v>
+        <v>0.3523707179679292</v>
       </c>
       <c r="G25">
-        <v>0.0007919016509966906</v>
+        <v>0.2358979226778715</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004255523429441688</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2167419770495016</v>
       </c>
       <c r="K25">
-        <v>1.383140560591528</v>
+        <v>0.1850170576439893</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.444545269885225</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.724055482314526</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9035828309561253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.040283438485574</v>
+        <v>1.030026372443245</v>
       </c>
       <c r="C2">
-        <v>0.2615358841898257</v>
+        <v>0.2706285117535288</v>
       </c>
       <c r="D2">
-        <v>0.0794523136283658</v>
+        <v>0.08198031485225243</v>
       </c>
       <c r="E2">
-        <v>1.383343921860458</v>
+        <v>1.383093053082504</v>
       </c>
       <c r="F2">
-        <v>0.330200834897731</v>
+        <v>0.3172271283343733</v>
       </c>
       <c r="G2">
-        <v>0.2263820974802826</v>
+        <v>0.1970566095173325</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001963058839575815</v>
+        <v>0.002198569234851178</v>
       </c>
       <c r="J2">
-        <v>0.2200517839157499</v>
+        <v>0.2524323265456232</v>
       </c>
       <c r="K2">
-        <v>0.1950958552409521</v>
+        <v>0.183322711005026</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.115790188620835</v>
       </c>
       <c r="M2">
-        <v>1.22114853491874</v>
+        <v>0.03522887671574892</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.234641210394273</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.8898812108193823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8508338019271946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9085588681378454</v>
+        <v>0.9025488831076416</v>
       </c>
       <c r="C3">
-        <v>0.2353595187489077</v>
+        <v>0.2389802066393401</v>
       </c>
       <c r="D3">
-        <v>0.07044895802353324</v>
+        <v>0.07220312659536177</v>
       </c>
       <c r="E3">
-        <v>1.190696238224248</v>
+        <v>1.190828243671646</v>
       </c>
       <c r="F3">
-        <v>0.3145913562549651</v>
+        <v>0.3041428024363313</v>
       </c>
       <c r="G3">
-        <v>0.2193206009933988</v>
+        <v>0.1922258063287003</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001106261010771714</v>
+        <v>0.00137254323352165</v>
       </c>
       <c r="J3">
-        <v>0.222103878662324</v>
+        <v>0.2536034015933382</v>
       </c>
       <c r="K3">
-        <v>0.2013525577520809</v>
+        <v>0.1903224103570924</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1213761777817961</v>
       </c>
       <c r="M3">
-        <v>1.072182458267861</v>
+        <v>0.0359336407111881</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.082173953623482</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8788810592243408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8463111218912474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8274288275456172</v>
+        <v>0.823926686986681</v>
       </c>
       <c r="C4">
-        <v>0.2194670413776549</v>
+        <v>0.2198576819509981</v>
       </c>
       <c r="D4">
-        <v>0.06492726782108349</v>
+        <v>0.06621995090517885</v>
       </c>
       <c r="E4">
-        <v>1.074158075312781</v>
+        <v>1.074470748322241</v>
       </c>
       <c r="F4">
-        <v>0.3055693290387964</v>
+        <v>0.2965605509553342</v>
       </c>
       <c r="G4">
-        <v>0.215480388701323</v>
+        <v>0.1897545256812094</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0007562218268093446</v>
+        <v>0.001011759217715014</v>
       </c>
       <c r="J4">
-        <v>0.223691492890687</v>
+        <v>0.2544675882451628</v>
       </c>
       <c r="K4">
-        <v>0.205510471156984</v>
+        <v>0.1948598813766775</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1249952090479685</v>
       </c>
       <c r="M4">
-        <v>0.9807651144969327</v>
+        <v>0.03686672046940398</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9886569909291438</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8738556840752807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8449189458983142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7939487792544355</v>
+        <v>0.7914519243239511</v>
       </c>
       <c r="C5">
-        <v>0.2134926566099011</v>
+        <v>0.2126106507438266</v>
       </c>
       <c r="D5">
-        <v>0.06274521399785016</v>
+        <v>0.06385294516495321</v>
       </c>
       <c r="E5">
-        <v>1.027036844068661</v>
+        <v>1.027411797402735</v>
       </c>
       <c r="F5">
-        <v>0.3016674245367241</v>
+        <v>0.2932307680405728</v>
       </c>
       <c r="G5">
-        <v>0.2136947741200856</v>
+        <v>0.1885444104339129</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0007167975138622218</v>
+        <v>0.0009735620540949341</v>
       </c>
       <c r="J5">
-        <v>0.2242392017738695</v>
+        <v>0.2546757734295895</v>
       </c>
       <c r="K5">
-        <v>0.207029481973235</v>
+        <v>0.1965320574120017</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1263816163862455</v>
       </c>
       <c r="M5">
-        <v>0.9439212503481258</v>
+        <v>0.03732824935191026</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9509670862997268</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8711298858296317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8436344913481122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7879555365945521</v>
+        <v>0.7856329581946397</v>
       </c>
       <c r="C6">
-        <v>0.2130699115763832</v>
+        <v>0.2119931299702529</v>
       </c>
       <c r="D6">
-        <v>0.06246504638091466</v>
+        <v>0.06354189522539855</v>
       </c>
       <c r="E6">
-        <v>1.019226464406287</v>
+        <v>1.01961137133911</v>
       </c>
       <c r="F6">
-        <v>0.3005890156418971</v>
+        <v>0.2922608012258578</v>
       </c>
       <c r="G6">
-        <v>0.2129925858610306</v>
+        <v>0.1879605891095721</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0007956518271212687</v>
+        <v>0.001069042752027904</v>
       </c>
       <c r="J6">
-        <v>0.2241167869329814</v>
+        <v>0.2544935685641434</v>
       </c>
       <c r="K6">
-        <v>0.2069791244589414</v>
+        <v>0.1965272060731618</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1264497068626316</v>
       </c>
       <c r="M6">
-        <v>0.9383022741045011</v>
+        <v>0.03735958349519386</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.945203300413425</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8693700787953986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8421634308021737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8258000697184116</v>
+        <v>0.8224491572330521</v>
       </c>
       <c r="C7">
-        <v>0.2209388879349916</v>
+        <v>0.2211297627326019</v>
       </c>
       <c r="D7">
-        <v>0.06512284356096387</v>
+        <v>0.06654862411631512</v>
       </c>
       <c r="E7">
-        <v>1.073501897153605</v>
+        <v>1.073800412145445</v>
       </c>
       <c r="F7">
-        <v>0.3043190340412423</v>
+        <v>0.2946864441992005</v>
       </c>
       <c r="G7">
-        <v>0.2143292979848255</v>
+        <v>0.1906889033315196</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0009670235145788908</v>
+        <v>0.001264489835707039</v>
       </c>
       <c r="J7">
-        <v>0.2231041441779027</v>
+        <v>0.2507319767081597</v>
       </c>
       <c r="K7">
-        <v>0.2046933857741937</v>
+        <v>0.1938278724210551</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1244240510484254</v>
       </c>
       <c r="M7">
-        <v>0.9816361891059273</v>
+        <v>0.03665876024444525</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9892796297748987</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.870183723169248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8394116413000035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9933392696197814</v>
+        <v>0.9849842592418554</v>
       </c>
       <c r="C8">
-        <v>0.2545482353345818</v>
+        <v>0.2610406942118857</v>
       </c>
       <c r="D8">
-        <v>0.07664758497855217</v>
+        <v>0.07936675325455411</v>
       </c>
       <c r="E8">
-        <v>1.316485917337204</v>
+        <v>1.316320723557681</v>
       </c>
       <c r="F8">
-        <v>0.3231143985016161</v>
+        <v>0.3088689506586917</v>
       </c>
       <c r="G8">
-        <v>0.2223523598932502</v>
+        <v>0.2006368247203767</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001880729940332948</v>
+        <v>0.002179952047195677</v>
       </c>
       <c r="J8">
-        <v>0.2199086672977018</v>
+        <v>0.2418696297783924</v>
       </c>
       <c r="K8">
-        <v>0.196088457808953</v>
+        <v>0.1837878175163272</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1167310673777191</v>
       </c>
       <c r="M8">
-        <v>1.171600269701401</v>
+        <v>0.03486645117074261</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.183113814120844</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8809268797980394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8378116470635177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.322285397787454</v>
+        <v>1.302798076200531</v>
       </c>
       <c r="C9">
-        <v>0.319310611662786</v>
+        <v>0.339933504429311</v>
       </c>
       <c r="D9">
-        <v>0.09891511831779809</v>
+        <v>0.1037822727456472</v>
       </c>
       <c r="E9">
-        <v>1.810100722814866</v>
+        <v>1.808532086512201</v>
       </c>
       <c r="F9">
-        <v>0.3669696330653949</v>
+        <v>0.3451032296051579</v>
       </c>
       <c r="G9">
-        <v>0.2443990717819133</v>
+        <v>0.2189545916894318</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.004893028176258696</v>
+        <v>0.004866712817869434</v>
       </c>
       <c r="J9">
-        <v>0.2174492074409073</v>
+        <v>0.2377620106168408</v>
       </c>
       <c r="K9">
-        <v>0.1833510734225712</v>
+        <v>0.1684682603079555</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1043745990105034</v>
       </c>
       <c r="M9">
-        <v>1.542523945594553</v>
+        <v>0.03597342149761396</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.562793853981077</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9232893839667327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.8600264067558356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.562712579673246</v>
+        <v>1.535132359902491</v>
       </c>
       <c r="C10">
-        <v>0.369086948802078</v>
+        <v>0.3994394222114579</v>
       </c>
       <c r="D10">
-        <v>0.1154766160671414</v>
+        <v>0.1228383352204219</v>
       </c>
       <c r="E10">
-        <v>2.188087227896261</v>
+        <v>2.184818825324882</v>
       </c>
       <c r="F10">
-        <v>0.4021521240547656</v>
+        <v>0.3701712505409844</v>
       </c>
       <c r="G10">
-        <v>0.2632206680287652</v>
+        <v>0.2474160226426037</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.008352711981154393</v>
+        <v>0.007882926505516252</v>
       </c>
       <c r="J10">
-        <v>0.2172633198296623</v>
+        <v>0.2188724984285031</v>
       </c>
       <c r="K10">
-        <v>0.1754322578350411</v>
+        <v>0.156803698454862</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09561253459010999</v>
       </c>
       <c r="M10">
-        <v>1.817073732175658</v>
+        <v>0.03861139495983501</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.842547080948634</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9633342407866934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.8719782575114863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.670046676976057</v>
+        <v>1.639926541813281</v>
       </c>
       <c r="C11">
-        <v>0.3947992158039995</v>
+        <v>0.4273930833410589</v>
       </c>
       <c r="D11">
-        <v>0.1234244043703114</v>
+        <v>0.1334748713004643</v>
       </c>
       <c r="E11">
-        <v>2.364550494019582</v>
+        <v>2.360064613263077</v>
       </c>
       <c r="F11">
-        <v>0.4171264167230078</v>
+        <v>0.3736639543896914</v>
       </c>
       <c r="G11">
-        <v>0.2707891982451045</v>
+        <v>0.282386251917373</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0105547926492946</v>
+        <v>0.009862515243584724</v>
       </c>
       <c r="J11">
-        <v>0.2167076820336717</v>
+        <v>0.1855702546704237</v>
       </c>
       <c r="K11">
-        <v>0.1709771697527671</v>
+        <v>0.1482403982119767</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09072042087782961</v>
       </c>
       <c r="M11">
-        <v>1.944791489221018</v>
+        <v>0.03876582699092879</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.970242151024536</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.9784508724689545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.854453675037675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.711755783725437</v>
+        <v>1.680788015885241</v>
       </c>
       <c r="C12">
-        <v>0.4031870552253451</v>
+        <v>0.4362498617352344</v>
       </c>
       <c r="D12">
-        <v>0.1262348859819724</v>
+        <v>0.1375101667850913</v>
       </c>
       <c r="E12">
-        <v>2.43217480421599</v>
+        <v>2.427158050789302</v>
       </c>
       <c r="F12">
-        <v>0.4239759864676174</v>
+        <v>0.3752045247934603</v>
       </c>
       <c r="G12">
-        <v>0.2747538958316369</v>
+        <v>0.3002199362758802</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01126244984602742</v>
+        <v>0.01042598008372853</v>
       </c>
       <c r="J12">
-        <v>0.217072325099835</v>
+        <v>0.172344809857492</v>
       </c>
       <c r="K12">
-        <v>0.1700582128390558</v>
+        <v>0.1453463963885113</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08904446089109719</v>
       </c>
       <c r="M12">
-        <v>1.992004874514976</v>
+        <v>0.03899086394622842</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.017150803274177</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9877074867456912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8485389527672424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.702986720602297</v>
+        <v>1.672188532202426</v>
       </c>
       <c r="C13">
-        <v>0.4010914038707654</v>
+        <v>0.4340509212821644</v>
       </c>
       <c r="D13">
-        <v>0.125588148369971</v>
+        <v>0.1365887113356763</v>
       </c>
       <c r="E13">
-        <v>2.417580572972682</v>
+        <v>2.412680872418463</v>
       </c>
       <c r="F13">
-        <v>0.422702132768805</v>
+        <v>0.3750971894330704</v>
       </c>
       <c r="G13">
-        <v>0.2740883338654143</v>
+        <v>0.2964030101788069</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01107025152937968</v>
+        <v>0.01025596274958485</v>
       </c>
       <c r="J13">
-        <v>0.2170911834196758</v>
+        <v>0.1752607034809586</v>
       </c>
       <c r="K13">
-        <v>0.1703924830590502</v>
+        <v>0.1460941824145063</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08944302989633002</v>
       </c>
       <c r="M13">
-        <v>1.981582732605546</v>
+        <v>0.03899632369646078</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.006809769314486</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9863170910845582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8504621115534121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.673568831262543</v>
+        <v>1.64337331883894</v>
       </c>
       <c r="C14">
-        <v>0.3953664308263853</v>
+        <v>0.4279981292001764</v>
       </c>
       <c r="D14">
-        <v>0.1236380231824228</v>
+        <v>0.1337844527453456</v>
       </c>
       <c r="E14">
-        <v>2.370100388731075</v>
+        <v>2.365572067010902</v>
       </c>
       <c r="F14">
-        <v>0.4177753051261064</v>
+        <v>0.3738872360814014</v>
       </c>
       <c r="G14">
-        <v>0.2711952355102341</v>
+        <v>0.2838590856919012</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01059574310745592</v>
+        <v>0.009887807564131101</v>
       </c>
       <c r="J14">
-        <v>0.2167789952651518</v>
+        <v>0.1845171610743819</v>
       </c>
       <c r="K14">
-        <v>0.1709594390398514</v>
+        <v>0.1480559889970401</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0905990312891003</v>
       </c>
       <c r="M14">
-        <v>1.948567893188084</v>
+        <v>0.03880724508212019</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.974000379609066</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9794682497009717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8542468843224498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.655129587063612</v>
+        <v>1.625334786681321</v>
       </c>
       <c r="C15">
-        <v>0.3924316906542344</v>
+        <v>0.4248552796559864</v>
       </c>
       <c r="D15">
-        <v>0.1225252442390286</v>
+        <v>0.1321784573077167</v>
       </c>
       <c r="E15">
-        <v>2.341109850833178</v>
+        <v>2.336800692232615</v>
       </c>
       <c r="F15">
-        <v>0.4143673002465036</v>
+        <v>0.3726691698404565</v>
       </c>
       <c r="G15">
-        <v>0.2690580027605947</v>
+        <v>0.276294075101525</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01038979689627695</v>
+        <v>0.009764495328248302</v>
       </c>
       <c r="J15">
-        <v>0.2163989724501505</v>
+        <v>0.1899835138692154</v>
       </c>
       <c r="K15">
-        <v>0.1710411882070453</v>
+        <v>0.1489978408942072</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09122777298088636</v>
       </c>
       <c r="M15">
-        <v>1.928848370257526</v>
+        <v>0.03858269946611514</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.954363381176108</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9741036011101158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8551827673786931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.552160749307575</v>
+        <v>1.524866017473272</v>
       </c>
       <c r="C16">
-        <v>0.3721361204580376</v>
+        <v>0.4025776436021431</v>
       </c>
       <c r="D16">
-        <v>0.1156386138929832</v>
+        <v>0.1228629577707778</v>
       </c>
       <c r="E16">
-        <v>2.176561407293946</v>
+        <v>2.1733692928387</v>
       </c>
       <c r="F16">
-        <v>0.3977384118293301</v>
+        <v>0.3666120150839873</v>
       </c>
       <c r="G16">
-        <v>0.2595125200961945</v>
+        <v>0.2424694670439251</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.00882341175058432</v>
+        <v>0.008517852099402035</v>
       </c>
       <c r="J16">
-        <v>0.2156318638574675</v>
+        <v>0.2194017411345044</v>
       </c>
       <c r="K16">
-        <v>0.1734029010226585</v>
+        <v>0.1553454787609638</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09522977037857672</v>
       </c>
       <c r="M16">
-        <v>1.812865972203952</v>
+        <v>0.03777612084725845</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.838273440814703</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.952041180897794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8633423295911484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.48900761646874</v>
+        <v>1.463480632857852</v>
       </c>
       <c r="C17">
-        <v>0.3597696049706087</v>
+        <v>0.3884860184370211</v>
       </c>
       <c r="D17">
-        <v>0.1114182961243557</v>
+        <v>0.1174978363002026</v>
       </c>
       <c r="E17">
-        <v>2.076866996159282</v>
+        <v>2.074248085782287</v>
       </c>
       <c r="F17">
-        <v>0.3877953476256479</v>
+        <v>0.3616204048913545</v>
       </c>
       <c r="G17">
-        <v>0.2538902385954174</v>
+        <v>0.2273295326732168</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.007948868183810021</v>
+        <v>0.007813333783476928</v>
       </c>
       <c r="J17">
-        <v>0.2152920022794618</v>
+        <v>0.2334843537451476</v>
       </c>
       <c r="K17">
-        <v>0.1749806356095114</v>
+        <v>0.1588054411229702</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09759998303249517</v>
       </c>
       <c r="M17">
-        <v>1.741830103907404</v>
+        <v>0.03717198154548029</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.766652555052872</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9392736042900651</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8646854232786296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.453752866933428</v>
+        <v>1.4292927517414</v>
       </c>
       <c r="C18">
-        <v>0.3512533985505257</v>
+        <v>0.3787150118850775</v>
       </c>
       <c r="D18">
-        <v>0.1087864654582944</v>
+        <v>0.1143244718305141</v>
       </c>
       <c r="E18">
-        <v>2.019975693010807</v>
+        <v>2.017647159384396</v>
       </c>
       <c r="F18">
-        <v>0.3832114396018937</v>
+        <v>0.3592831701676928</v>
       </c>
       <c r="G18">
-        <v>0.2517145662756306</v>
+        <v>0.2213610506085573</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.007253145026912655</v>
+        <v>0.007153292991974425</v>
       </c>
       <c r="J18">
-        <v>0.2156508202956147</v>
+        <v>0.2401504798582081</v>
       </c>
       <c r="K18">
-        <v>0.1766371274391005</v>
+        <v>0.161248916160492</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09915267479157919</v>
       </c>
       <c r="M18">
-        <v>1.699762242404972</v>
+        <v>0.03703063215845326</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.72407333440546</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9353332756233357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8670583476323088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.440993403205937</v>
+        <v>1.416930618094881</v>
       </c>
       <c r="C19">
-        <v>0.34947874832298</v>
+        <v>0.3765499096174381</v>
       </c>
       <c r="D19">
-        <v>0.1080543649407844</v>
+        <v>0.1134300961968506</v>
       </c>
       <c r="E19">
-        <v>2.000761858232764</v>
+        <v>1.998526737429614</v>
       </c>
       <c r="F19">
-        <v>0.3808688818297128</v>
+        <v>0.357656274139643</v>
       </c>
       <c r="G19">
-        <v>0.250238382479985</v>
+        <v>0.2189296635033173</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007191194883133356</v>
+        <v>0.007142304475097561</v>
       </c>
       <c r="J19">
-        <v>0.2153882990189402</v>
+        <v>0.2416901758290066</v>
       </c>
       <c r="K19">
-        <v>0.1766629492178389</v>
+        <v>0.1615780441197217</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09949604583308158</v>
       </c>
       <c r="M19">
-        <v>1.686487013192959</v>
+        <v>0.03679402555760447</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.710588501088324</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9316270472047989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.8653992098638952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.495813863626495</v>
+        <v>1.470087951735536</v>
       </c>
       <c r="C20">
-        <v>0.3609703987214914</v>
+        <v>0.3898826461376075</v>
       </c>
       <c r="D20">
-        <v>0.1118512225563393</v>
+        <v>0.1180399854280125</v>
       </c>
       <c r="E20">
-        <v>2.087437180829752</v>
+        <v>2.0847611145538</v>
       </c>
       <c r="F20">
-        <v>0.3889262544092915</v>
+        <v>0.3622759969934677</v>
       </c>
       <c r="G20">
-        <v>0.2545567399578275</v>
+        <v>0.2288197613889764</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.008021067709667484</v>
+        <v>0.007864125919353704</v>
       </c>
       <c r="J20">
-        <v>0.2153631534173641</v>
+        <v>0.2322105067804614</v>
       </c>
       <c r="K20">
-        <v>0.17486298161025</v>
+        <v>0.1585010537700349</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09736882215741538</v>
       </c>
       <c r="M20">
-        <v>1.749289956765267</v>
+        <v>0.03725868716968073</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.774194397536832</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9408502023329817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.8649058473783242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.681009585614277</v>
+        <v>1.651108240614462</v>
       </c>
       <c r="C21">
-        <v>0.3986533190294494</v>
+        <v>0.4305982920893143</v>
       </c>
       <c r="D21">
-        <v>0.1244419757211546</v>
+        <v>0.1353812307237519</v>
       </c>
       <c r="E21">
-        <v>2.383990122202391</v>
+        <v>2.379264168778221</v>
       </c>
       <c r="F21">
-        <v>0.4180526705621688</v>
+        <v>0.3707837245699395</v>
       </c>
       <c r="G21">
-        <v>0.270952351593472</v>
+        <v>0.2946963538054206</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01095716464825003</v>
+        <v>0.01025775543077589</v>
       </c>
       <c r="J21">
-        <v>0.2163041094975213</v>
+        <v>0.1740613450148061</v>
       </c>
       <c r="K21">
-        <v>0.1700095627065252</v>
+        <v>0.1459638246638786</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08976363129898068</v>
       </c>
       <c r="M21">
-        <v>1.959663791852449</v>
+        <v>0.03819964446140034</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.984203457753068</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.9779771408320954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.8430975618195902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.803655554289293</v>
+        <v>1.771103624365708</v>
       </c>
       <c r="C22">
-        <v>0.4215438025804303</v>
+        <v>0.4550760271327476</v>
       </c>
       <c r="D22">
-        <v>0.132393904849593</v>
+        <v>0.1467687747988435</v>
       </c>
       <c r="E22">
-        <v>2.582419294508597</v>
+        <v>2.576106086260367</v>
       </c>
       <c r="F22">
-        <v>0.4394677377270355</v>
+        <v>0.3773522636211268</v>
       </c>
       <c r="G22">
-        <v>0.2838660209060677</v>
+        <v>0.3472571449413522</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01288726371061877</v>
+        <v>0.01169771655286578</v>
       </c>
       <c r="J22">
-        <v>0.2180852055637175</v>
+        <v>0.1443359460466809</v>
       </c>
       <c r="K22">
-        <v>0.1682717537507834</v>
+        <v>0.1386344919060321</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08535719319951873</v>
       </c>
       <c r="M22">
-        <v>2.095818420346774</v>
+        <v>0.03936265974842357</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.119732436227082</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.009337589648965</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8320941172159735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.739633986689739</v>
+        <v>1.708134171381261</v>
       </c>
       <c r="C23">
-        <v>0.4073607669957084</v>
+        <v>0.440574072082569</v>
       </c>
       <c r="D23">
-        <v>0.1278691899586306</v>
+        <v>0.1399909020370984</v>
       </c>
       <c r="E23">
-        <v>2.476096709072777</v>
+        <v>2.470715634448752</v>
       </c>
       <c r="F23">
-        <v>0.4293570139729752</v>
+        <v>0.3768235350975786</v>
       </c>
       <c r="G23">
-        <v>0.2782082797598093</v>
+        <v>0.3137742128788688</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01157667709809385</v>
+        <v>0.01060181864607213</v>
       </c>
       <c r="J23">
-        <v>0.2177721869047389</v>
+        <v>0.1640742072626544</v>
       </c>
       <c r="K23">
-        <v>0.1700999617747527</v>
+        <v>0.1439062793347308</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08811300749679063</v>
       </c>
       <c r="M23">
-        <v>2.021414554365577</v>
+        <v>0.03933409239067842</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.046285278032911</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9965527008377393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.846552502760062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.494998104145054</v>
+        <v>1.469298409535185</v>
       </c>
       <c r="C24">
-        <v>0.3574008147054997</v>
+        <v>0.3860477827927866</v>
       </c>
       <c r="D24">
-        <v>0.111219721319884</v>
+        <v>0.117354009270727</v>
       </c>
       <c r="E24">
-        <v>2.082715607698006</v>
+        <v>2.080062041909613</v>
       </c>
       <c r="F24">
-        <v>0.390626979536556</v>
+        <v>0.3640619609924656</v>
       </c>
       <c r="G24">
-        <v>0.2563238933832395</v>
+        <v>0.2300946081646913</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.007557278139738166</v>
+        <v>0.007305327723313937</v>
       </c>
       <c r="J24">
-        <v>0.2164062487325467</v>
+        <v>0.2337570590006806</v>
       </c>
       <c r="K24">
-        <v>0.1764075587818112</v>
+        <v>0.1599270888707451</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09794320767958631</v>
       </c>
       <c r="M24">
-        <v>1.743275589310258</v>
+        <v>0.0377314752576563</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.768159919647502</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9467742727168655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.8709447551605649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.231264729408821</v>
+        <v>1.214781698527048</v>
       </c>
       <c r="C25">
-        <v>0.3044672587231361</v>
+        <v>0.3216324653249814</v>
       </c>
       <c r="D25">
-        <v>0.09329718476806903</v>
+        <v>0.09737280203524534</v>
       </c>
       <c r="E25">
-        <v>1.674207060753872</v>
+        <v>1.673127229908772</v>
       </c>
       <c r="F25">
-        <v>0.3523707179679292</v>
+        <v>0.3337400025176365</v>
       </c>
       <c r="G25">
-        <v>0.2358979226778715</v>
+        <v>0.2086481974797962</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.004255523429441688</v>
+        <v>0.004439975693812492</v>
       </c>
       <c r="J25">
-        <v>0.2167419770495016</v>
+        <v>0.2419969844162111</v>
       </c>
       <c r="K25">
-        <v>0.1850170576439893</v>
+        <v>0.1714507620894477</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1071606877276601</v>
       </c>
       <c r="M25">
-        <v>1.444545269885225</v>
+        <v>0.03491531181161811</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.462724337023047</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9035828309561253</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.8493428491239712</v>
       </c>
     </row>
   </sheetData>
